--- a/output/Перемещения 2024-01-16.xlsx
+++ b/output/Перемещения 2024-01-16.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O117"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>61.32889338387483</v>
+        <v>61.55111560609703</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1134.635516867863</v>
+        <v>1135.524405756752</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>636.2042000690396</v>
+        <v>955.0264222912615</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>992.4840149049556</v>
+        <v>1008.083883518002</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>235877.2705726135</v>
+        <v>243197.1855252598</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>46271.85075636012</v>
+        <v>46387.26393787275</v>
       </c>
       <c r="I9" t="n">
         <v>11319.80192271807</v>
@@ -895,54 +895,54 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Вилка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд) упак ПРАЙД ООО</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Вилка одноразовая Кристалл 180 мм, черн., ПС, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ПРАЙД ООО</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>7.464285714285714</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>40261.61923127143</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20645.42958941197</v>
+        <v>35.94871404350146</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>{'""', '"103175"', '"114910"'}</t>
+          <t>{'"114531"'}</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>803.6071428571431</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд) упак ПРАЙД ООО</t>
+          <t>Губка поролоновая для посуды 90х60х25 мм Стандарт, цвет в ассорт., 5 шт/упак (ООО ПФ Прайд) упак ПРАЙД ООО</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Губка поролоновая для посуды 110х80х30 мм XXXL, цвет в ассорт., 10 шт/упак (ООО ПФ Прайд)</t>
+          <t>Губка поролоновая для посуды 90х60х25 мм Стандарт, цвет в ассорт., 5 шт/упак (ООО ПФ Прайд)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.464285714285714</v>
+        <v>24.82142857142857</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -983,11 +983,11 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>35.44871404350146</v>
+        <v>35.69344081592484</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>{'"114531"'}</t>
+          <t>{'"114532"'}</t>
         </is>
       </c>
       <c r="L11" t="n">
@@ -997,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.5</v>
+        <v>24.8</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1005,54 +1005,54 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Губка поролоновая для посуды 90х60х25 мм Стандарт, цвет в ассорт., 5 шт/упак (ООО ПФ Прайд) упак ПРАЙД ООО</t>
+          <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ) шт СОЭМЗ АО</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Губка поролоновая для посуды 90х60х25 мм Стандарт, цвет в ассорт., 5 шт/упак (ООО ПФ Прайд)</t>
+          <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ПРАЙД ООО</t>
+          <t>СОЭМЗ АО</t>
         </is>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.82142857142857</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>19027.504479803</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.71566303814707</v>
+        <v>18397.82449132914</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>{'"114532"'}</t>
+          <t>{'"113027"', '""', '"102855"'}</t>
         </is>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4357</v>
       </c>
       <c r="N12" t="n">
-        <v>24.77777777777778</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1060,25 +1060,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ) шт СОЭМЗ АО</t>
+          <t>Держатель для стаканов 2 яч. 80х180х70 мм, крафт., карт., 400 шт/кор "OSQ" Eco cupholder шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Держатель для стаканов 2 яч. 108х193х42 мм, сер., карт., 150 шт/кор (ОАО СОЭМЗ)</t>
+          <t>Держатель для стаканов 2 яч. 80х180х70 мм, крафт., карт., 400 шт/кор "OSQ" Eco cupholder</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>СОЭМЗ АО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>6692.057587805167</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1087,27 +1087,27 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>21302.8344860705</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18397.82449132914</v>
+        <v>0</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>{'"113027"', '""', '"102855"'}</t>
+          <t>{'"114092"'}</t>
         </is>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4357</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>492.9424121948334</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1115,25 +1115,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Держатель для стаканов 2 яч. 80х180х70 мм, крафт., карт., 400 шт/кор "OSQ" Eco cupholder шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ) шт СОЭМЗ АО</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Держатель для стаканов 2 яч. 80х180х70 мм, крафт., карт., 400 шт/кор "OSQ" Eco cupholder</t>
+          <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>СОЭМЗ АО</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6612.613143360722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1142,27 +1142,27 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>6786.022459581456</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>10563.88465180152</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>{'"114092"'}</t>
+          <t>{'"113028"', '""', '"102853"'}</t>
         </is>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1152.071428571428</v>
       </c>
       <c r="N14" t="n">
-        <v>492.9424121948334</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1170,51 +1170,51 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ) шт СОЭМЗ АО</t>
+          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY" упак Guangzhou Gorla</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Держатель для стаканов 4 яч. 200х200х50 мм, сер., карт., 130 шт/кор (ОАО СОЭМЗ)</t>
+          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>СОЭМЗ АО</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>136.1071428571429</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>570.711532552989</v>
       </c>
       <c r="H15" t="n">
-        <v>7231.387854219367</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>10563.88465180152</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>{'""', '"113028"', '"102853"'}</t>
+          <t>{'"112682"'}</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>633.788467447011</v>
       </c>
       <c r="M15" t="n">
-        <v>1152.071428571428</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1225,31 +1225,31 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY" упак Guangzhou Gorla</t>
+          <t>Контейнер 1500 мл 1-секц. 186х132х93 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Зубочистки 65 мм в инд. бум. упаковке, бамбук, 1000 шт/упак "GREEN MYSTERY"</t>
+          <t>Контейнер 1500 мл 1-секц. 186х132х93 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>136.1071428571429</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>819.6093915386252</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1258,21 +1258,21 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1768.367888442532</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{'"112682"'}</t>
+          <t>{'"106410"'}</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>384.8906084613748</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1280,16 +1280,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Контейнер 1500 мл 1-секц. 186х132х93 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас шт ТОО Stroylux</t>
+          <t>Контейнер 250 мл 1-секц. 108х82х48 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт) шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Контейнер 1500 мл 1-секц. 186х132х93 мм, серия 186, без крышки, прозр., ПП, 500 шт/кор (ТОО Аке Плас</t>
+          <t>Контейнер 250 мл 1-секц. 108х82х48 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1307,27 +1307,27 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>17515.26727707246</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1773.923443998088</v>
+        <v>7736.539799390272</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{'"106410"'}</t>
+          <t>{'"114175"'}</t>
         </is>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2050.785714285714</v>
       </c>
       <c r="N17" t="n">
-        <v>594.4444444444445</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Контейнер 250 мл 1-секц. 108х82х48 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт) шт ТОО Stroylux</t>
+          <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Контейнер 250 мл 1-секц. 108х82х48 мм серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+          <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1356,30 +1356,30 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5193.215318211628</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>17283.47595107077</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>7736.539799390272</v>
+        <v>0</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>{'"114175"'}</t>
+          <t>{'"106389"'}</t>
         </is>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>2050.785714285714</v>
+        <v>1106.784681788372</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1390,16 +1390,16 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас шт ТОО Stroylux</t>
+          <t>Контейнер 350 мл 1-секц. 108х82х69 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Контейнер 250 мл 1-секц., овал 155х125х35 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+          <t>Контейнер 350 мл 1-секц. 108х82х69 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>4902.515561273088</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>11783.98826432017</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1427,14 +1427,14 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>{'"106389"'}</t>
+          <t>{'"112966"'}</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28080</v>
       </c>
       <c r="M19" t="n">
-        <v>1397.484438726912</v>
+        <v>73.21428571428578</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Контейнер 350 мл 1-секц. 108х82х69 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт шт ТОО Stroylux</t>
+          <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Контейнер 350 мл 1-секц. 108х82х69 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Пласт</t>
+          <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1466,30 +1466,30 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1328.010730409351</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>7932.38903629273</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>10206.69650723686</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>{'"112966"'}</t>
+          <t>{'"106390"'}</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>28080</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>73.21428571428578</v>
+        <v>3458.489269590649</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -1500,16 +1500,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас шт ТОО Stroylux</t>
+          <t>Контейнер 500 мл 1-секц. 108х82х102 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Плас шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Контейнер 350 мл 1-секц., овал 155х125х45 мм, неразъем.крышка, прозр., ПЭТ, 420 шт/кор (ТОО Аке Плас</t>
+          <t>Контейнер 500 мл 1-секц. 108х82х102 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Плас</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1521,30 +1521,30 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1839.636290761146</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>19550.52594267891</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>10206.69650723686</v>
+        <v>19396.95360571729</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>{'"106390"'}</t>
+          <t>{'"112967"'}</t>
         </is>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2946.863709238854</v>
+        <v>3998</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -1555,21 +1555,21 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 108х82х102 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Плас шт ТОО Stroylux</t>
+          <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 108х82х102 мм, серия 108, без крышки, прозр., ПП, 100 шт/упак (ТОО Аке Плас</t>
+          <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1582,56 +1582,56 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20738.57897850177</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>10089.845187147</v>
       </c>
       <c r="J22" t="n">
-        <v>19396.95360571729</v>
+        <v>0</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>{'"112967"'}</t>
+          <t>{'"102342"'}</t>
         </is>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>3998</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
+          <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. 124,5х124,5х59,8 мм, без крышки, черн., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1450.571428571428</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1640,14 +1640,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8945.400742702557</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>935.001626203386</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>{'"102342"'}</t>
+          <t>{'"102347"'}</t>
         </is>
       </c>
       <c r="L23" t="n">
@@ -1657,62 +1657,62 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>677.5</v>
       </c>
       <c r="O23" t="n">
-        <v>2994.444444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл 1-секц. d115хh82,6 мм, без крышки, черн., ПП, 50 шт/упак "ПолиЭр"</t>
+          <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1450.571428571428</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>26136.14975895501</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1437.501626203386</v>
+        <v>2907.464603886236</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>{'"102347"'}</t>
+          <t>{'"112341"'}</t>
         </is>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>6896.982142857143</v>
       </c>
       <c r="N24" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1720,16 +1720,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Контейнер 500 мл, 164х115х45 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+          <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1747,24 +1747,24 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>24182.1363178916</v>
+        <v>31756.20631500709</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2907.464603886236</v>
+        <v>0</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>{'"112341"'}</t>
+          <t>{'"111875"', '"105350"'}</t>
         </is>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>6896.982142857143</v>
+        <v>4137.071428571428</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -1775,16 +1775,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad  шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-бел., карт., 50 шт/упак "OSQ" OpSalad</t>
+          <t xml:space="preserve">Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>31603.98723025259</v>
+        <v>6230.421016934335</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1812,14 +1812,14 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>{'"105350"', '"111875"'}</t>
+          <t>{'107238', '"114576"', '"105342"'}</t>
         </is>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4137.071428571428</v>
+        <v>297</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -1834,17 +1834,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad  шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Контейнер 800 мл, 209х127х55 мм, без окна, без крышки, крафт-черн., карт., 50 шт/упак "OSQ" OpSalad </t>
+          <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1857,44 +1857,44 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>6660.364265980107</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3850.902945233635</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>{'"107238"', '114576', '"105342"'}</t>
+          <t>{'"107208"'}</t>
         </is>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Контейнер 800[500+2х150] мл 3-секц., овал 257х202х37 мм, без крышки, черн., ПП, 30 шт/упак "ПолиЭр"</t>
+          <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>3350.151817597546</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1915,14 +1915,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>3528.902945233635</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>{'"107208"'}</t>
+          <t>{'"253028"'}</t>
         </is>
       </c>
       <c r="L28" t="n">
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>3790</v>
+        <v>2865.848182402454</v>
       </c>
     </row>
     <row r="29">
@@ -1944,12 +1944,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 188х133х30 мм, без крышки, черн., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3084.151817597546</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1432.107602909623</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1977,11 +1977,11 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>{'"253028"'}</t>
+          <t>{'"253042"'}</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -1990,39 +1990,39 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2865.848182402454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Контейнер для суши 4-секц. 245х167х62 мм, неразъм.крышка, прозр., ПЭТ, 200 шт/кор (ТОО Аке Пласт) шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Контейнер для суши 1-секц. 235х162х25 мм, без крышки, черн., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+          <t>Контейнер для суши 4-секц. 245х167х62 мм, неразъм.крышка, прозр., ПЭТ, 200 шт/кор (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1300.100705529184</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>997</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1493.950346589973</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2032,17 +2032,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>{'"253042"'}</t>
+          <t>{'"105193"'}</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>291.8992944708161</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2050,28 +2050,28 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Контейнер для суши 4-секц. 245х167х62 мм, неразъм.крышка, прозр., ПЭТ, 200 шт/кор (ТОО Аке Пласт) шт ТОО Stroylux</t>
+          <t>Коробка для бургера [бургербокс] 110х110х60 мм, M, крафт, карт., 50 шт/упак "OSQ" шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Контейнер для суши 4-секц. 245х167х62 мм, неразъм.крышка, прозр., ПЭТ, 200 шт/кор (ТОО Аке Пласт)</t>
+          <t>Коробка для бургера [бургербокс] 110х110х60 мм, M, крафт, карт., 50 шт/упак "OSQ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1300.100705529184</v>
+        <v>1480.069856710652</v>
       </c>
       <c r="F31" t="n">
-        <v>997</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>{'"105193"'}</t>
+          <t>{'"106423"', '"106422"'}</t>
         </is>
       </c>
       <c r="L31" t="n">
@@ -2097,33 +2097,33 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>291.8992944708161</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>3499.930143289348</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Коробка для бургера [бургербокс] 110х110х60 мм, M, крафт, карт., 50 шт/упак "OSQ" шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY" шт Hangzhou Tomato</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Коробка для бургера [бургербокс] 110х110х60 мм, M, крафт, карт., 50 шт/упак "OSQ"</t>
+          <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Hangzhou Tomato</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1466.736523377319</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>13901.06588897904</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2142,43 +2142,43 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>{'"106422"', '"106423"'}</t>
+          <t>{'"191609"'}</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>749</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3499.930143289348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY" шт Hangzhou Tomato</t>
+          <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Коробка для бургера [бургербокс] 152х152х80 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+          <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>9929.000537301383</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>13970.65246089449</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2197,34 +2197,34 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>{'"191609"'}</t>
+          <t>{'"111452"'}</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>749</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2916.170181998141</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>2454.829280700477</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Коробка для картофеля фри 105х50х110 мм, M, крафт-бел., карт., 50 шт/упак "OSQ" Eco Fry</t>
+          <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2233,26 +2233,26 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>9929.000537301383</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>4062</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>163.6799545902343</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>{'"111452"'}</t>
+          <t>{'"106322"', '"111453"'}</t>
         </is>
       </c>
       <c r="L34" t="n">
@@ -2262,29 +2262,29 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2916.170181998141</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>2454.829280700477</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>344</v>
+        <v>402</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim" шт КАДО-ПРИМ ООО</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Коробка для картофеля фри 126х50х135 мм, L, крафт, карт., 50 шт/упак "OSQ" Eco Fry</t>
+          <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>КАДО-ПРИМ ООО</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -2294,33 +2294,33 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4062</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>572278.8702522736</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6799545902343</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>50818.30804841474</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>{'"111453"', '"106322"'}</t>
+          <t>{'"102325"', '"102319"'}</t>
         </is>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>14215.85714285714</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2329,50 +2329,50 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim" шт КАДО-ПРИМ ООО</t>
+          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Крышка для стакана d80 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>КАДО-ПРИМ ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>23427.68245876048</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>4084.821428571428</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>661868.1273608139</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>50818.30804841474</v>
+        <v>0</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>{'"102325"', '"102319"'}</t>
+          <t>{'"107254"', '"113509"'}</t>
         </is>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>14215.85714285714</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2562.317541239517</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2380,16 +2380,16 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2398,36 +2398,36 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23265.46023653826</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>4084.821428571428</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>101664.2655213461</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>12688.91063834917</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>{'"107254"', '"113509"'}</t>
+          <t>{'"113505"', '"102308"'}</t>
         </is>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>202.3571428571413</v>
       </c>
       <c r="N37" t="n">
-        <v>2562.317541239517</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2439,17 +2439,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Крышка для стакана d90 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim" шт КАДО-ПРИМ ООО</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Крышка для стакана d80 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Крышка для стакана d90 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>КАДО-ПРИМ ООО</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -2462,24 +2462,24 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>88439.37777203633</v>
+        <v>232836.041623073</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>12688.91063834917</v>
+        <v>0</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>{'"113505"', '"102308"'}</t>
+          <t>{'"102320"', '"107294"'}</t>
         </is>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>202.3571428571413</v>
+        <v>3908.035714285714</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim" шт КАДО-ПРИМ ООО</t>
+          <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim" шт КАДО-ПРИМ ООО</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с клапаном, бел., ПС, 100 шт/упак "Kado-Prim"</t>
+          <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2517,24 +2517,24 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>244778.7979576951</v>
+        <v>464568.8834510336</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>58337.97951341241</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>{'"107294"', '"102320"'}</t>
+          <t>{'"102256"', '"102321"'}</t>
         </is>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>3908.035714285714</v>
+        <v>3616.071428571428</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -2545,25 +2545,25 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim" шт КАДО-ПРИМ ООО</t>
+          <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с клапаном, черн., ПС, 100 шт/упак "Kado-Prim"</t>
+          <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>КАДО-ПРИМ ООО</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>172953.9689162124</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2572,27 +2572,27 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>513567.6499302961</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58337.97951341241</v>
+        <v>0</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>{'"102256"', '"102321"'}</t>
+          <t>{'"112795"', '"102285"'}</t>
         </is>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>3616.071428571428</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>108591.0310837876</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с пробивным слотом и заглушкой, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>117331.1911384346</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2627,7 +2627,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>27497.13012245205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2637,17 +2637,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>{'"112795"', '"102285"'}</t>
+          <t>{'"115219"', '"111614"'}</t>
         </is>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="N41" t="n">
-        <v>108591.0310837876</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -2659,17 +2659,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Крышка для стакана d90 мм с центральным отверстием, прозр., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2682,24 +2682,24 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>28535.70362533601</v>
+        <v>96212.63141979469</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4565.964830448016</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>{'"111614"', '"115219"'}</t>
+          <t>{'"113210"', '"107441"'}</t>
         </is>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2000</v>
+        <v>1506.035714285714</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -2710,54 +2710,54 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
+          <t>Крышка для формы алюм. 220х170 мм, карт.фольг., 100 шт/упак (ООО Ламкарт) шт ЛАМКАРТ ООО</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Крышка для стакана d95 мм куполообразная без отверстия, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Крышка для формы алюм. 220х170 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>ЛАМКАРТ ООО</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1723.50448612183</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>21.42857142857133</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>99625.86390426799</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>4565.964830448016</v>
+        <v>0</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>{'"113210"', '"107441"'}</t>
+          <t>{'"112888"'}</t>
         </is>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1506.035714285714</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>936.4955138781695</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -2769,24 +2769,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Крышка для формы алюм. 220х170 мм, карт.фольг., 100 шт/упак (ООО Ламкарт) шт ЛАМКАРТ ООО</t>
+          <t>Крышка для формы алюм. 308х208 мм, карт.фольг., 100 шт/упак (ООО Олма) шт МОНОЛИТ ООО</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Крышка для формы алюм. 220х170 мм, карт.фольг., 100 шт/упак (ООО Ламкарт)</t>
+          <t>Крышка для формы алюм. 308х208 мм, карт.фольг., 100 шт/упак (ООО Олма)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ЛАМКАРТ ООО</t>
+          <t>МОНОЛИТ ООО</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>591.2822638996086</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.42857142857133</v>
+        <v>466.9642857142857</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2798,11 +2798,11 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>514.6120400496598</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>{'"112888"'}</t>
+          <t>{'"107930"'}</t>
         </is>
       </c>
       <c r="L44" t="n">
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>936.4955138781695</v>
+        <v>240</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -2820,54 +2820,54 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Крышка для формы алюм. 308х208 мм, карт.фольг., 100 шт/упак (ООО Олма) шт МОНОЛИТ ООО</t>
+          <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт) шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Крышка для формы алюм. 308х208 мм, карт.фольг., 100 шт/упак (ООО Олма)</t>
+          <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>МОНОЛИТ ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>466.9642857142857</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>20073.53452367151</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>521.2787067163264</v>
+        <v>0</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>{'"107930"'}</t>
+          <t>{'"112968"'}</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>6731.696428571428</v>
       </c>
       <c r="N45" t="n">
-        <v>233.3333333333334</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -2875,21 +2875,21 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт) шт ТОО Stroylux</t>
+          <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500 шт ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 108х82х3 мм, прозр., ПП, 100 шт/упак (ТОО Аке Пласт)</t>
+          <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2902,24 +2902,24 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>13113.5657598529</v>
+        <v>27859.14132174739</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1320.131235098288</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>{'"112968"'}</t>
+          <t>{'"112340"'}</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>27900</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>6731.696428571428</v>
+        <v>6050.875</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -2930,54 +2930,54 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500 шт ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>Крышка к контейнеру 179х132х8 мм, прозр., ПП, 50 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 175х130х13,5 мм, прозр., ПЭТ 50 шт/упак "OSQ" OpSalad 500</t>
+          <t>Крышка к контейнеру 179х132х8 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>5606.59230953435</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>9834.660714285714</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>25205.55222305838</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1320.131235098288</v>
+        <v>0</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>{'"112340"'}</t>
+          <t>{'"105069"'}</t>
         </is>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>6050.875</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1393.40769046565</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -2985,16 +2985,16 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 179х132х8 мм, прозр., ПП, 50 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру 179х132х8 мм, прозр., ПП, 50 шт/упак "ПолиЭр"</t>
+          <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3003,16 +3003,16 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5595.481198423238</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>9834.660714285714</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>3244.819019579795</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3022,17 +3022,17 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>{'"105069"'}</t>
+          <t>{'"158229"'}</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>771</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1393.40769046565</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3040,25 +3040,25 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Крышка к контейнеру для пресервов [ведру] d171 мм, прозр., ПП, 80 шт/упак (ТОО Торгстрой) шт ТОО Stroylux</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру d194хh40,5 мм, прозр., ПЭТ, 75 шт/упак "ПолиЭр"</t>
+          <t>Крышка к контейнеру для пресервов [ведру] d171 мм, прозр., ПП, 80 шт/упак (ТОО Торгстрой)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>ТОО Stroylux</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1097.666593225434</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -3067,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>3595.835250959648</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -3077,17 +3077,17 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>{'"158229"'}</t>
+          <t>{'"110624"'}</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>771</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>494.3334067745658</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3095,25 +3095,25 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для пресервов [ведру] d171 мм, прозр., ПП, 80 шт/упак (ТОО Торгстрой) шт ТОО Stroylux</t>
+          <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для пресервов [ведру] d171 мм, прозр., ПП, 80 шт/упак (ТОО Торгстрой)</t>
+          <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ТОО Stroylux</t>
+          <t>ПолиЭр ООО</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1096.777704336545</v>
+        <v>3350.151817597546</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>{'"110624"'}</t>
+          <t>{'"253029"'}</t>
         </is>
       </c>
       <c r="L50" t="n">
@@ -3142,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>494.3334067745658</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>2865.848182402454</v>
       </c>
     </row>
     <row r="51">
@@ -3154,12 +3154,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 188х133х32 мм, прозр., ПЭТ, 420 шт/кор "ПолиЭр"</t>
+          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3084.151817597546</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1409.420105865986</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -3187,11 +3187,11 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>{'"253029"'}</t>
+          <t>{'"253043"'}</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3200,59 +3200,59 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2865.848182402454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр" шт ПолиЭр ООО</t>
+          <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина" шт АЛПИНА ООО</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Крышка к контейнеру для суши 235х162х25 мм, прозр., ПЭТ, 220 шт/кор "ПолиЭр"</t>
+          <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ПолиЭр ООО</t>
+          <t>АЛПИНА ООО</t>
         </is>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>1469.982142857143</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1468.968118350592</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2019.17250124995</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>{'"253043"'}</t>
+          <t>{'"254501"'}</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3260,21 +3260,21 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 230х155х87 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY" шт Hangzhou Tomato</t>
+          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 230х155х87 мм, бел., сах.тростник, 50 шт/упак "GREEN MYSTERY"</t>
+          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Hangzhou Tomato</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -3287,24 +3287,24 @@
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>2301.352457797332</v>
+        <v>157891.4432143219</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>137396.5267001182</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>{'"191620"'}</t>
+          <t>{'"112793"'}</t>
         </is>
       </c>
       <c r="L53" t="n">
         <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>299</v>
+        <v>8675</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -3315,54 +3315,54 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина" шт АЛПИНА ООО</t>
+          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Ланч-бокс 1-секц. 250х210х65 мм, бел., ВПС 100 шт/кор "Алпина"</t>
+          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>АЛПИНА ООО</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1469.982142857143</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>48418.65849592441</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>10126.75541317861</v>
       </c>
       <c r="J54" t="n">
-        <v>2033.616945694394</v>
+        <v>0</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>{'"254501"'}</t>
+          <t>{'"141080"'}</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>4680</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1205.555555555556</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3370,16 +3370,16 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 160 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+          <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3397,27 +3397,27 @@
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>144565.9489842927</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>137396.5267001182</v>
+        <v>8480.270143208496</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>{'"112793"'}</t>
+          <t>{'"103482"', '"114921"'}</t>
         </is>
       </c>
       <c r="L55" t="n">
         <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>8675</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3425,25 +3425,25 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
+          <t xml:space="preserve">Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс) рул ТЕХИНВЕСТ ПЛЮС </t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 165 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+          <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>710.1669967218774</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3452,27 +3452,27 @@
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>50292.87022787767</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>10126.75541317861</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>{'"141080"'}</t>
+          <t>{'"101300"'}</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>4680</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>737.8330032781226</v>
       </c>
       <c r="O56" t="n">
         <v>0</v>
@@ -3480,31 +3480,31 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t xml:space="preserve">Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио) рул КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ложка одноразовая 173,5 мм, черн., ПП, 50 шт/упак (ООО ВЗЛП)</t>
+          <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="E57" t="n">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>58.21428571428572</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>132.6343902947012</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3513,21 +3513,21 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>8489.159032097385</v>
+        <v>0</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>{'"114921"', '"103482"'}</t>
+          <t>{'"114028"'}</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>138.1656097052988</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>11.11111111111109</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -3535,21 +3535,21 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс) рул ТЕХИНВЕСТ ПЛЮС </t>
+          <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г шт ДЭНАСНАБ ООО</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Мешок для мусора 120 л, [50+20]х110 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+          <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
+          <t>ДЭНАСНАБ ООО</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -3562,53 +3562,53 @@
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>57.28646494942798</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>82.35970096950854</v>
       </c>
       <c r="J58" t="n">
-        <v>81.09634837628836</v>
+        <v>0</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>{'"102185"'}</t>
+          <t>{'"101694"'}</t>
         </is>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>46.33928571428572</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>6.800000000000011</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>601</v>
+        <v>644</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс) рул ТЕХИНВЕСТ ПЛЮС </t>
+          <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Мешок для мусора 240 л, [70+20]х140 см Суперпрочный, черн., ПВД, 10 шт/рул (ООО Техинвест Плюс)</t>
+          <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">ТЕХИНВЕСТ ПЛЮС </t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>562.1669967218774</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>29610.15325218557</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -3627,17 +3627,17 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>{'"101300"'}</t>
+          <t>{'"111503"', '"112794"'}</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>3345.821428571428</v>
       </c>
       <c r="N59" t="n">
-        <v>737.8330032781226</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -3645,31 +3645,31 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>617</v>
+        <v>660</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио) рул КОМПАНИЯ ЛЕМИО </t>
+          <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф шт ФЛЕКСАПРИНТ ООО</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Мешок кондитерский в рулоне 1-сл., 53 см, 90 мкм, прозр., ПЭ, 100 шт/рул (ООО Компания Лемио)</t>
+          <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ФЛЕКСАПРИНТ ООО</t>
         </is>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>58.21428571428572</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>129.4476742136551</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -3678,21 +3678,21 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>42284.71076503803</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>{'"114028"'}</t>
+          <t>{'"106096"'}</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>141.3523257863449</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -3700,21 +3700,21 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г шт ДЭНАСНАБ ООО</t>
+          <t xml:space="preserve">Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак) упак НИЖПОЛИМЕРУПАК </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Мыло кусковое хозяйственное "Калужский блеск" 72%, 200 г</t>
+          <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ДЭНАСНАБ ООО</t>
+          <t xml:space="preserve">НИЖПОЛИМЕРУПАК </t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -3727,53 +3727,53 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>139.771119947797</v>
       </c>
       <c r="I61" t="n">
-        <v>84.21525652506411</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>{'"101694"'}</t>
+          <t>{'"113306"'}</t>
         </is>
       </c>
       <c r="L61" t="n">
         <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>27.05357142857143</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>4.944444444444443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>647</v>
+        <v>691</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Нож одноразовый 165 мм, бел., ПС, 100 шт/упак (ООО ВЗЛП)</t>
+          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>2540.96083530373</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>32337.48184809056</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -3792,17 +3792,17 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>{'"112794"', '"111503"'}</t>
+          <t>{'"108185"', '"113926"'}</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>3345.821428571428</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>2075.03916469627</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -3810,34 +3810,34 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>660</v>
+        <v>701</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Обертка для бургеров и хот-догов 305х305 мм, беж., бум., 1000 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
+          <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма) упак ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Обертка для бургеров и хот-догов 305х305 мм, беж., бум., 1000 шт/кор (ООО Тек-Пак)</t>
+          <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>7566.331291197216</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>98.2823265580175</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -3847,14 +3847,14 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>{'"106087"'}</t>
+          <t>{'"112309"'}</t>
         </is>
       </c>
       <c r="L63" t="n">
         <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>2433.668708802784</v>
+        <v>30</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -3865,25 +3865,25 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф шт ФЛЕКСАПРИНТ ООО</t>
+          <t>Пакет вакуум. 160х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма) упак ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Обертка для бургеров и хот-догов 320х305 мм, диз. "Рог изобилия", разноцв., бум., 2000 шт/кор (ООО Ф</t>
+          <t>Пакет вакуум. 160х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>ФЛЕКСАПРИНТ ООО</t>
+          <t>ТК ТАСМА ООО</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>38.5453672577634</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>42306.93298726025</v>
+        <v>0</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>{'"106096"'}</t>
+          <t>{'"112305"'}</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>20777.77777777778</v>
+        <v>2.854632742236618</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -3920,21 +3920,21 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак) упак НИЖПОЛИМЕРУПАК </t>
+          <t>Пакет на вынос [120+80]х245 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Пакет "Майка" [250+120]х450 мм 10 мкм, бел., ПНД, 100 шт/упак (ООО Нижполимерупак)</t>
+          <t>Пакет на вынос [120+80]х245 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">НИЖПОЛИМЕРУПАК </t>
+          <t>ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>146.4495472228317</v>
+        <v>356.5755109162747</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -3957,14 +3957,14 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>{'"113306"'}</t>
+          <t>{'"112834"'}</t>
         </is>
       </c>
       <c r="L65" t="n">
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>27.05357142857143</v>
+        <v>5000</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -3975,16 +3975,16 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
+          <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Пакет [240+140]х280 мм с плоск. ручками, крафт, бум., 300 шт/кор (ООО Тек-Пак)</t>
+          <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3993,7 +3993,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>2490.96083530373</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
@@ -4002,27 +4002,27 @@
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>79160.61342086052</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>2699.389051593965</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>{'"113926"', '"108185"'}</t>
+          <t>{'"105811"', '"113016"'}</t>
         </is>
       </c>
       <c r="L66" t="n">
         <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1563.642857142857</v>
       </c>
       <c r="N66" t="n">
-        <v>2075.03916469627</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -4030,34 +4030,34 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>704</v>
+        <v>740</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма) упак ТК ТАСМА ООО</t>
+          <t>Палочки для шашлыка 150 мм, d2 мм, бамбук, 100 шт/упак "GREEN MYSTERY" упак Guangzhou Gorla</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 150х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+          <t>Палочки для шашлыка 150 мм, d2 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>ТК ТАСМА ООО</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>579.606504657479</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>593.65</v>
       </c>
       <c r="H67" t="n">
-        <v>101.3157322890712</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -4067,43 +4067,43 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>{'"112309"'}</t>
+          <t>{'"109020"'}</t>
         </is>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>207.793495342521</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>705</v>
+        <v>756</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 160х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма) упак ТК ТАСМА ООО</t>
+          <t>Перчатки нитровиниловые, р-р XL, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ" пар Jiangxi Rainbow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Пакет вакуум. 160х200 мм 70 мкм, прозр., ПЭТ/ПЭ, 200 шт/упак (ООО ТК Тасма)</t>
+          <t>Перчатки нитровиниловые, р-р XL, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ТК ТАСМА ООО</t>
+          <t>Jiangxi Rainbow</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.03425614665228</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
@@ -4118,11 +4118,11 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1999.63608130811</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>{'"112305"'}</t>
+          <t>{'"113075"'}</t>
         </is>
       </c>
       <c r="L68" t="n">
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>2.854632742236618</v>
+        <v>200</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4140,21 +4140,21 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>715</v>
+        <v>790</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Пакет на вынос [120+80]х245 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
+          <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ (ООО Монопак) рул МОНОПАК ООО</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Пакет на вынос [120+80]х245 мм S без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
+          <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ (ООО Монопак)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>МОНОПАК ООО</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -4167,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>616.8445297567769</v>
+        <v>11.62969830631202</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -4177,14 +4177,14 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>{'"112834"'}</t>
+          <t>{'"114390"'}</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>5000</v>
+        <v>5.482142857142857</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -4195,25 +4195,25 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>718</v>
+        <v>797</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак) шт ТЕК-ПАК ООО</t>
+          <t>Подложка для пиццы треуг. 235х235х15, бел., карт., 1500 шт/кор (ООО Типография Альбатрос) шт ТИПОГРАФИЯ АЛЬБ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Пакет на вынос [180+120]х290 мм M без ручек, крафт, бум., 1000 шт/кор (ООО Тек-Пак)</t>
+          <t>Подложка для пиццы треуг. 235х235х15, бел., карт., 1500 шт/кор (ООО Типография Альбатрос)</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ТЕК-ПАК ООО</t>
+          <t>ТИПОГРАФИЯ АЛЬБ</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>861.7919955108332</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -4222,27 +4222,27 @@
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>82748.73969684255</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2699.389051593965</v>
+        <v>0</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>{'"105811"', '"113016"'}</t>
+          <t>{'"250043"'}</t>
         </is>
       </c>
       <c r="L70" t="n">
         <v>0</v>
       </c>
       <c r="M70" t="n">
-        <v>1563.642857142857</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>2138.208004489167</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4250,21 +4250,21 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>736</v>
+        <v>807</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак) рул ВАШ ПАКЕТ ООО</t>
+          <t xml:space="preserve">Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo рул ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Пакет фасовочный 250х400 мм 8 мкм, на втул., прозр., ПНД, 500 шт/рул (ООО РадугаУпак)</t>
+          <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>ВАШ ПАКЕТ ООО</t>
+          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -4277,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>23.64535566792943</v>
+        <v>48.25538755693005</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -4287,11 +4287,11 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>{'"223592"'}</t>
+          <t>{'"451356"'}</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>5.399999999999977</v>
+        <v>6</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -4305,34 +4305,34 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>743</v>
+        <v>826</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка 150 мм, d2 мм, бамбук, 100 шт/упак "GREEN MYSTERY" упак Guangzhou Gorla</t>
+          <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС) шт РТС ПЛАСТИК ООО</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Палочки для шашлыка 150 мм, d2 мм, бамбук, 100 шт/упак "GREEN MYSTERY"</t>
+          <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>РТС ПЛАСТИК ООО</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>579.5398379908124</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>593.65</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>97613.84980994659</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -4342,11 +4342,11 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>{'"109020"'}</t>
+          <t>{'"103535"'}</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -4355,26 +4355,26 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>207.793495342521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>759</v>
+        <v>827</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Перчатки нитровиниловые, р-р XL, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ" пар Jiangxi Rainbow</t>
+          <t xml:space="preserve">Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио) шт КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Перчатки нитровиниловые, р-р XL, неопудрен., черн., 50 пар/упак "МИСТЕРИЯ"</t>
+          <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jiangxi Rainbow</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -4387,27 +4387,27 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>68799.49398783853</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2005.191636863666</v>
+        <v>0</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>{'"113075"'}</t>
+          <t>{'"345044"'}</t>
         </is>
       </c>
       <c r="L73" t="n">
         <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N73" t="n">
-        <v>194.4444444444445</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -4415,34 +4415,34 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>793</v>
+        <v>828</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ (ООО Монопак) рул МОНОПАК ООО</t>
+          <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY" шт Guangzhou Gorla</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Пленка пищевая 450мм х 900м 9 мкм, прозр., ПВХ (ООО Монопак)</t>
+          <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>МОНОПАК ООО</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>44857.23654701532</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>10750</v>
       </c>
       <c r="H74" t="n">
-        <v>12.23985676282803</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -4452,49 +4452,49 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>{'"114390"'}</t>
+          <t>{'"112690"'}</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>5.482142857142857</v>
+        <v>0</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>26474.01345298468</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>800</v>
+        <v>830</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Подложка для пиццы треуг. 235х235х15, бел., карт., 1500 шт/кор (ООО Типография Альбатрос) шт ТИПОГРАФИЯ АЛЬБ</t>
+          <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY" шт Guangzhou Gorla</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Подложка для пиццы треуг. 235х235х15, бел., карт., 1500 шт/кор (ООО Типография Альбатрос)</t>
+          <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ТИПОГРАФИЯ АЛЬБ</t>
+          <t>Guangzhou Gorla</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>861.7919955108332</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>180892.8571428572</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>62270.60055420332</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4507,17 +4507,17 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>{'"250043"'}</t>
+          <t>{'"106502"'}</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>309348.1494457967</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>2138.208004489167</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
@@ -4525,21 +4525,21 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>810</v>
+        <v>834</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo рул ХАЯТ МАРКЕТИНГ </t>
+          <t xml:space="preserve">Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио) шт КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Полотенца бумажные для диспенсеров 2-сл. с центр. вытяжкой, бел., 125 м "Focus" Jumbo</t>
+          <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХАЯТ МАРКЕТИНГ </t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -4552,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>47.04719613357761</v>
+        <v>536453.1219356206</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>{'"451356"'}</t>
+          <t>{'"112713"'}</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>7410.714285714286</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -4580,25 +4580,25 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС) шт РТС ПЛАСТИК ООО</t>
+          <t xml:space="preserve">Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио) шт КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Размешиватель 120 мм, бел., ПС, 500 шт/упак (ООО РТС)</t>
+          <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>РТС ПЛАСТИК ООО</t>
+          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>142900.0570863939</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>59186.03933182082</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>{'"103535"'}</t>
+          <t>{'"106521"'}</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>9000</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -4630,26 +4630,26 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>9274.942913606075</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>830</v>
+        <v>862</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио) шт КОМПАНИЯ ЛЕМИО </t>
+          <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.) упак Головкин Сергей</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, древ. волокно, 500 шт/упак (ООО Компания Лемио)</t>
+          <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>Головкин Сергей</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -4662,7 +4662,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>71553.87710783428</v>
+        <v>16922.45865981163</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -4672,14 +4672,14 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>{'"345044"'}</t>
+          <t>{'"114628"', '"103896"'}</t>
         </is>
       </c>
       <c r="L78" t="n">
         <v>0</v>
       </c>
       <c r="M78" t="n">
-        <v>10000</v>
+        <v>3035.446428571428</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -4690,48 +4690,48 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>831</v>
+        <v>893</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY" шт Guangzhou Gorla</t>
+          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, инд. упак., бамбук, 250 шт/упак "GREEN MYSTERY"</t>
+          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47012.09765812644</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>10750</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>392912.0441916125</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>269018.9850201675</v>
       </c>
       <c r="J79" t="n">
         <v>0</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>{'"112690"'}</t>
+          <t>{'"113508"', '"112278"', '""'}</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>8590</v>
       </c>
       <c r="M79" t="n">
         <v>0</v>
@@ -4740,36 +4740,36 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>26474.01345298468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>833</v>
+        <v>907</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY" шт Guangzhou Gorla</t>
+          <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Размешиватель 140 мм, коричн., бамбук, 500 шт/упак "GREEN MYSTERY"</t>
+          <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Guangzhou Gorla</t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>180892.8571428572</v>
+        <v>7257.687781907509</v>
       </c>
       <c r="G80" t="n">
-        <v>59145.96632714162</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4778,18 +4778,18 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>84005.33364562746</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>{'"106502"'}</t>
+          <t>{'"150031"', '"112788"'}</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>312472.7836728584</v>
+        <v>0</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>17226.77650380678</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -4800,21 +4800,21 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>837</v>
+        <v>909</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио) шт КОМПАНИЯ ЛЕМИО </t>
+          <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Размешиватель 180 мм, древ. волокно, 1000 шт/упак (ООО Компания Лемио)</t>
+          <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ВЗЛП ООО</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>559519.599555108</v>
+        <v>33960.56630927722</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4837,14 +4837,14 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>{'"112713"'}</t>
+          <t>{'"112789"', '"150051"'}</t>
         </is>
       </c>
       <c r="L81" t="n">
         <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>7410.714285714286</v>
+        <v>741.6964285714294</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -4855,28 +4855,28 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>838</v>
+        <v>919</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио) шт КОМПАНИЯ ЛЕМИО </t>
+          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл шт ИП Platinum Sha</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Размешиватель 180 мм, инд. упак., древ. волокно, 250 шт/упак (ООО Компания Лемио)</t>
+          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">КОМПАНИЯ ЛЕМИО </t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>142169.5015308383</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>12.53726766153191</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -4892,39 +4892,39 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>{'"106521"'}</t>
+          <t>{'"101365"'}</t>
         </is>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>12.10558948132523</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>9274.942913606075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.) упак Головкин Сергей</t>
+          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл шт ИП Platinum Sha</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Салфетки 250х250 мм 1-сл., бел., бум., 100 шт/упак (ИП Головкин С.В.)</t>
+          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Головкин Сергей</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -4934,82 +4934,82 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>338.6</v>
       </c>
       <c r="H83" t="n">
-        <v>18595.78753685184</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>17.83708108112933</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>{'"103896"', '"114628"'}</t>
+          <t>{'"101366"'}</t>
         </is>
       </c>
       <c r="L83" t="n">
         <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>3035.446428571428</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>899</v>
+        <v>923</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл шт ИП Platinum Sha</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Сахар порционный 5 г, стик, 1000 шт/кор (ООО ВЗЛП)</t>
+          <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ИП Platinum Sha</t>
         </is>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>27.75913181430663</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>419783.4864577627</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>269018.9850201675</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>{'""', '"112278"', '"113508"'}</t>
+          <t>{'"112803"'}</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>8590</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>5.294439614264796</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -5020,28 +5020,28 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Средство чистящее универсальное "Чистин" Лимонный всплеск, порошок, 400 г шт СТУПИНСКИЙ ХИМИ</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Соусник 30 мл, d51хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+          <t>Средство чистящее универсальное "Чистин" Лимонный всплеск, порошок, 400 г</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>СТУПИНСКИЙ ХИМИ</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>9.620841150084139</v>
       </c>
       <c r="F85" t="n">
-        <v>6681.59049946758</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -5053,43 +5053,43 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>84005.33364562746</v>
+        <v>0</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>{'"150031"', '"112788"'}</t>
+          <t>{'"101680"'}</t>
         </is>
       </c>
       <c r="L85" t="n">
         <v>0</v>
       </c>
       <c r="M85" t="n">
-        <v>17802.87378624671</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>20.17915884991586</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>915</v>
+        <v>958</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП) шт ВЗЛП ООО</t>
+          <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Соусник 50 мл, d63хh32 мм, неразъем. крышка, прозр., ПП, 80 шт/упак (ООО ВЗЛП)</t>
+          <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ВЗЛП ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -5102,7 +5102,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>35619.95760696522</v>
+        <v>12082.85338090615</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -5112,14 +5112,14 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>{'"150051"', '"112789"'}</t>
+          <t>{'"113380"'}</t>
         </is>
       </c>
       <c r="L86" t="n">
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>741.6964285714294</v>
+        <v>2899</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -5130,51 +5130,51 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>925</v>
+        <v>970</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл шт ИП Platinum Sha</t>
+          <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, канистра, 5000 мл</t>
+          <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>14.3139331271724</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>8736.108996639163</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>5330.570317226728</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>{'"101365"'}</t>
+          <t>{'"113369"', '"102642"'}</t>
         </is>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>10.32892401568474</v>
+        <v>2218.321428571428</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -5185,89 +5185,89 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>926</v>
+        <v>983</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл шт ИП Platinum Sha</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Средство для дезинфекции и отбеливания "Platinum Sharks" Gold Белизна 25%, флакон, 1000 мл</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.440696696648445</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>338.6</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>60782.29840780859</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0</v>
+        <v>5689.54562878847</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>{'"101366"'}</t>
+          <t>{'"113368"', '"100556"'}</t>
         </is>
       </c>
       <c r="L88" t="n">
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>3872.75</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>72.83708108112933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>928</v>
+        <v>986</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл шт ПРО-БРАЙТ ООО</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Средство для мытья пароконвектоматов "Pro-Brite" Strong, концентрат, канистра, 5000 мл</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ПРО-БРАЙТ ООО</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>7438.872870687148</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>5564.642857142857</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>68.03899706137071</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -5277,17 +5277,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>{'"847281"'}</t>
+          <t>{'"113378"', '"102621"'}</t>
         </is>
       </c>
       <c r="L89" t="n">
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>4.517857142857143</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>2471.127129312852</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -5295,51 +5295,51 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>929</v>
+        <v>987</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл шт ИП Platinum Sha</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Средство для мытья пола и твердых поверхностей "Platinum Sharks", канистра, 5000 мл</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>28.74870112946475</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>10691.96633719466</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>6460.013572831102</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>{'"112803"'}</t>
+          <t>{'"113382"'}</t>
         </is>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>4.304870299106685</v>
+        <v>3979.357142857143</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -5350,31 +5350,31 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>948</v>
+        <v>989</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Средство для очистки кухонных плит "Platinum Sharks" D-09 Антижир, триггер, 750 мл шт ИП Platinum Sha</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Средство для очистки кухонных плит "Platinum Sharks" D-09 Антижир, триггер, 750 мл</t>
+          <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ИП Platinum Sha</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>11358.8844180722</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>4364.285714285715</v>
       </c>
       <c r="G91" t="n">
-        <v>40.13068655615746</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5387,17 +5387,17 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>{'"101367"'}</t>
+          <t>{'"114952"'}</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>8.119313443842543</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>641.1155819278001</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -5405,25 +5405,25 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>959</v>
+        <v>1009</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Средство чистящее универсальное "Чистин" Лимонный всплеск, порошок, 400 г шт СТУПИНСКИЙ ХИМИ</t>
+          <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Средство чистящее универсальное "Чистин" Лимонный всплеск, порошок, 400 г</t>
+          <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>СТУПИНСКИЙ ХИМИ</t>
+          <t>ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>9.209730038973028</v>
+        <v>1252.322694709992</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -5442,7 +5442,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>{'"101680"'}</t>
+          <t>{'"113371"'}</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -5452,24 +5452,24 @@
         <v>0</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>3787.677305290008</v>
       </c>
       <c r="O92" t="n">
-        <v>20.17915884991586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>964</v>
+        <v>1012</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Стакан бумажный 185 мл 1 сл., d73 мм, диз. "Coffee", карт., 100 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>12455.85416723486</v>
+        <v>2777.735433936632</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -5497,14 +5497,14 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>{'"113380"'}</t>
+          <t>{'"113386"', '"100821"', '113405'}</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>251</v>
       </c>
       <c r="M93" t="n">
-        <v>2899</v>
+        <v>381.5357142857143</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -5515,76 +5515,76 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>976</v>
+        <v>1037</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО ТПК Юпласт-Черноземье) шт ЮРИН ИВАН ВЛАДИ</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Стакан бумажный 250 мл 1 сл., d80 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО ТПК Юпласт-Черноземье)</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ЮРИН ИВАН ВЛАДИ</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>50240.34941859586</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="H94" t="n">
-        <v>10378.81328430698</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>5330.570317226728</v>
+        <v>0</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>{'"102642"', '"113369"'}</t>
+          <t>{'"104250"'}</t>
         </is>
       </c>
       <c r="L94" t="n">
         <v>0</v>
       </c>
       <c r="M94" t="n">
-        <v>2218.321428571428</v>
+        <v>0</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>2877.150581404137</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>989</v>
+        <v>1054</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ТПК Юпласт-Черноземье) шт ЮРИН ИВАН ВЛАДИ</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ТПК Юпласт-Черноземье)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ЮРИН ИВАН ВЛАДИ</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -5597,24 +5597,24 @@
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>64146.66984208638</v>
+        <v>23254.09131579124</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>5689.54562878847</v>
+        <v>3361.579467053673</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>{'"100556"', '"113368"'}</t>
+          <t>{'"106125"'}</t>
         </is>
       </c>
       <c r="L95" t="n">
         <v>0</v>
       </c>
       <c r="M95" t="n">
-        <v>3872.75</v>
+        <v>510.0714285714286</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -5625,54 +5625,54 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>992</v>
+        <v>1057</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, красн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>7559.428426242697</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>5564.642857142857</v>
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>11469.3769021738</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>4003.226341458046</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>{'"102621"', '"113378"'}</t>
+          <t>{'"115416"'}</t>
         </is>
       </c>
       <c r="L96" t="n">
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1873.892857142857</v>
       </c>
       <c r="N96" t="n">
-        <v>2471.127129312852</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -5680,21 +5680,21 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>993</v>
+        <v>1058</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, крафт-бел., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>УПАКС-ЮНИТИ ООО</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -5704,27 +5704,27 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>67992.70093953454</v>
       </c>
       <c r="H97" t="n">
-        <v>11543.72655928452</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>3842.420154971682</v>
       </c>
       <c r="J97" t="n">
-        <v>6460.013572831102</v>
+        <v>0</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>{'"113382"'}</t>
+          <t>{'"113206"', '"115417"'}</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1722.299060465462</v>
       </c>
       <c r="M97" t="n">
-        <v>3979.357142857143</v>
+        <v>0</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5735,28 +5735,28 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>995</v>
+        <v>1075</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Тарелка одноразовая 2-секц. d210 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Стакан бумажный 300 мл 1 сл., d90 мм, сине-фиолет., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Тарелка одноразовая 2-секц. d210 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>11358.8844180722</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>4364.285714285715</v>
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -5765,14 +5765,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>12496.04759250466</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>{'"114952"'}</t>
+          <t>{'"122100"'}</t>
         </is>
       </c>
       <c r="L98" t="n">
@@ -5782,33 +5782,33 @@
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>641.1155819278001</v>
+        <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>0</v>
+        <v>700</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1015</v>
+        <v>1099</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 1 сл., d90 мм, черн., карт., 50 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>537.322694709992</v>
+        <v>4174.0754491556</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
@@ -5827,7 +5827,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>{'"113371"'}</t>
+          <t>{'"123250"'}</t>
         </is>
       </c>
       <c r="L99" t="n">
@@ -5837,7 +5837,7 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3787.677305290008</v>
+        <v>12118.4245508444</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -5845,21 +5845,21 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>1018</v>
+        <v>1128</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус) шт ПАПЕРСКОП РУС О</t>
+          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап упак ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Стакан бумажный 400 мл 2 сл., d90 мм, крафт-бел., карт., 18 шт/упак (ООО Паперскоп Рус)</t>
+          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>ПАПЕРСКОП РУС О</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -5872,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>2606.954049948989</v>
+        <v>495.6964094667654</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -5882,14 +5882,14 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>{'"113386"', '113405', '"100821"', '113386', '"113405"'}</t>
+          <t>{'"114977"'}</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>251</v>
+        <v>244.8</v>
       </c>
       <c r="M100" t="n">
-        <v>381.5357142857143</v>
+        <v>441.2142857142857</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -5900,31 +5900,31 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1043</v>
+        <v>1134</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО ТПК Юпласт-Черноземье) шт ЮРИН ИВАН ВЛАДИ</t>
+          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон) упак ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 200 мл, прозр., ПП, 100 шт/упак (ООО ТПК Юпласт-Черноземье)</t>
+          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон)</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ЮРИН ИВАН ВЛАДИ</t>
+          <t>ПК ДИАПАЗОН ООО</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>49188.12719637364</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>140</v>
+        <v>231.5046739309006</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -5937,11 +5937,11 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>{'"104250"'}</t>
+          <t>{'"114700"'}</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>31.89532606909938</v>
       </c>
       <c r="M101" t="n">
         <v>0</v>
@@ -5950,30 +5950,30 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>2877.150581404137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>1060</v>
+        <v>1211</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ТПК Юпласт-Черноземье) шт ЮРИН ИВАН ВЛАДИ</t>
+          <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал) шт РУСАЛ - Саянска</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Стакан одноразовый 500 мл, диз. "Факел", прозр., ПП, 50 шт/упак (ООО ТПК Юпласт-Черноземье)</t>
+          <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ЮРИН ИВАН ВЛАДИ</t>
+          <t>РУСАЛ - Саянска</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>1568.863416263066</v>
       </c>
       <c r="F102" t="n">
         <v>0</v>
@@ -5982,27 +5982,27 @@
         <v>0</v>
       </c>
       <c r="H102" t="n">
-        <v>24445.02632995998</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3361.579467053673</v>
+        <v>0</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>{'"106125"'}</t>
+          <t>{'"105500"', '"112413"'}</t>
         </is>
       </c>
       <c r="L102" t="n">
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>510.0714285714286</v>
+        <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1901.136583736934</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -6010,54 +6010,54 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1063</v>
+        <v>1212</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
+          <t>Форма алюминиевая 1-секц. 2235 мл 313х213х44 мм, без крышки, алюм., 25 шт/упак (ООО Олма) шт МОНОЛИТ ООО</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 200 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Форма алюминиевая 1-секц. 2235 мл 313х213х44 мм, без крышки, алюм., 25 шт/упак (ООО Олма)</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>МОНОЛИТ ООО</t>
         </is>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>466.9642857142857</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
       </c>
       <c r="H103" t="n">
-        <v>13079.42258894655</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>4003.226341458046</v>
+        <v>605.5818447986003</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>{'"115416"'}</t>
+          <t>{'"105497"'}</t>
         </is>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1873.892857142857</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -6065,51 +6065,51 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>1064</v>
+        <v>1252</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity" шт УПАКС-ЮНИТИ ООО</t>
+          <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд) рул НБК ТРЕЙД ООО</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Стакан-шейкер одноразовый 300 мл, прозр., ПЭТ, 50 шт/упак "Upax-Unity"</t>
+          <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>УПАКС-ЮНИТИ ООО</t>
+          <t>НБК ТРЕЙД ООО</t>
         </is>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>103.3276455518919</v>
       </c>
       <c r="G104" t="n">
-        <v>67248.34390821918</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>3842.420154971682</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>1307.785564133032</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>{'"115417"', '"113206"'}</t>
+          <t>{'"105654"'}</t>
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2466.656091780819</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>1439.011640162394</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -6120,21 +6120,21 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>1081</v>
+        <v>1254</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Тарелка одноразовая 2-секц. d210 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
+          <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек" рул ПРЕМЬЕР ООО</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Тарелка одноразовая 2-секц. d210 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
+          <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>ПК ДИАПАЗОН ООО</t>
+          <t>ПРЕМЬЕР ООО</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -6147,689 +6147,29 @@
         <v>0</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>4325.498287595927</v>
       </c>
       <c r="I105" t="n">
-        <v>12496.04759250466</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>453.8756829457838</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>{'"122100"'}</t>
+          <t>{'"113289"'}</t>
         </is>
       </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>817.1964285714286</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>1088</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Тарелка одноразовая глубокая 475 мл, d153 мм, бел., ПП, 50 шт/упак "МИСТЕРИЯ"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0</v>
-      </c>
-      <c r="H106" t="n">
-        <v>9410.84866601564</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>{'"121490"'}</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>4800</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>1105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ" шт ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Тарелка одноразовая мелкая d167 мм, бел., ПС, 100 шт/упак "МИСТЕРИЯ"</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>4364.908782488939</v>
-      </c>
-      <c r="F107" t="n">
-        <v>0</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>{'"123250"'}</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>12118.4245508444</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>1132</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Трубочки для коктейлей 210 мм, d5 мм, черн., пласт. с гофроизгибом, 250 шт/упак (ООО Экстралайн) упак ЭКСТРАЛАЙН</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Трубочки для коктейлей 210 мм, d5 мм, черн., пласт. с гофроизгибом, 250 шт/упак (ООО Экстралайн)</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>ЭКСТРАЛАЙН</t>
-        </is>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>0</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0</v>
-      </c>
-      <c r="H108" t="n">
-        <v>55.04098844043538</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>{'"105982"'}</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
-      <c r="M108" t="n">
-        <v>20.98214285714286</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>1134</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап упак ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>Трубочки для коктейлей 210 мм, d7 мм, черн., пласт. прямые в инд. упаковке, 200 шт/упак (ООО ПК Диап</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>0</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0</v>
-      </c>
-      <c r="H109" t="n">
-        <v>570.7423434590403</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>{'"114977"'}</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>244.8</v>
-      </c>
-      <c r="M109" t="n">
-        <v>441.2142857142857</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>1140</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон) упак ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>Трубочки для коктейлей 240 мм, d8 мм, черн., пласт. прямые, 150 шт/упак (ООО ПК Диапазон)</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>ПК ДИАПАЗОН ООО</t>
-        </is>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>0</v>
-      </c>
-      <c r="G110" t="n">
-        <v>229.3864674129737</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>{'"114700"'}</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>34.01353258702627</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>1166</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак " шт ОЭСКЬЮ ТРЕЙДИНГ</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Упаковка [коробка] для сэндвичей 130х130х60 мм, с окном, неразъем.крышка, крафт, карт., 50 шт/упак "</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>ОЭСКЬЮ ТРЕЙДИНГ</t>
-        </is>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>0</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0</v>
-      </c>
-      <c r="H111" t="n">
-        <v>8793.123842560452</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>{'"114849"', '"110621"'}</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
-      <c r="M111" t="n">
-        <v>199</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>1175</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Упаковка для бургера типа "Уголок" 150х145 мм, бел., бум., 2500 шт/кор (ООО ФлексаПринт) шт ФЛЕКСАПРИНТ ООО</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Упаковка для бургера типа "Уголок" 150х145 мм, бел., бум., 2500 шт/кор (ООО ФлексаПринт)</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>ФЛЕКСАПРИНТ ООО</t>
-        </is>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>0</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2940.920081641088</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>{'"106098"'}</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1500</v>
-      </c>
-      <c r="M112" t="n">
-        <v>3069.785714285714</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>1193</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Упаковка для роллов 400 мл, 160х115х48 мм, прозр., ПЭТ, 400 шт/кор "Kado-Prim" шт КАДО-ПРИМ ООО</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Упаковка для роллов 400 мл, 160х115х48 мм, прозр., ПЭТ, 400 шт/кор "Kado-Prim"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>КАДО-ПРИМ ООО</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>0</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0</v>
-      </c>
-      <c r="H113" t="n">
-        <v>21400.81764986306</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>{'"107332"', '"107331"'}</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>391</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>1217</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал) шт РУСАЛ - Саянска</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Форма алюминиевая 1-секц. 1125 мл 225х175х35 мм, без крышки, алюм., 50 шт/упак (ООО Русал)</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>РУСАЛ - Саянска</t>
-        </is>
-      </c>
-      <c r="E114" t="n">
-        <v>348.863416263066</v>
-      </c>
-      <c r="F114" t="n">
-        <v>0</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>{'"105500"', '"112413"'}</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-      <c r="N114" t="n">
-        <v>1901.136583736934</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>1218</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Форма алюминиевая 1-секц. 2235 мл 313х213х44 мм, без крышки, алюм., 25 шт/упак (ООО Олма) шт МОНОЛИТ ООО</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>Форма алюминиевая 1-секц. 2235 мл 313х213х44 мм, без крышки, алюм., 25 шт/упак (ООО Олма)</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>МОНОЛИТ ООО</t>
-        </is>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>466.9642857142857</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
-        <v>612.2485114652669</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>{'"105497"'}</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0</v>
-      </c>
-      <c r="N115" t="n">
-        <v>233.3333333333334</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>1258</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд) рул НБК ТРЕЙД ООО</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Чековая лента 80мм х 60м, d12 мм, бел., термобум. (ООО НБК Трейд)</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>НБК ТРЕЙД ООО</t>
-        </is>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>48.20294028223702</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1307.785564133032</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>{'"105654"'}</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
-      <c r="M116" t="n">
-        <v>1494.136345432049</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>1260</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек" рул ПРЕМЬЕР ООО</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Чековая лента 80мм х 80м, d12 мм, бел., термобум. "Честный чек"</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>ПРЕМЬЕР ООО</t>
-        </is>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0</v>
-      </c>
-      <c r="H117" t="n">
-        <v>4493.74010912533</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>453.8756829457838</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>{'"113289"'}</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
-      <c r="M117" t="n">
-        <v>817.1964285714286</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
         <v>0</v>
       </c>
     </row>
